--- a/Recall/Recall.xlsx
+++ b/Recall/Recall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lunduniversityo365-my.sharepoint.com/personal/em5456ol-s_lu_se/Documents/Jobb/Experiments/FacesNamesProffessions/Recall/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hassl\OneDrive - Lund University\Biofinder\fMRI-tasks\FacesNamesProfessions_fMRI\Recall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="503" documentId="13_ncr:1_{DB649F8E-F871-4E00-B5CA-E22D50F99C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54017DB0-C8F8-4C08-9572-D8FED4CA0469}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAF58D2-076E-4B96-9AB6-414B40C3538D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{FE38B517-9BCF-4DCC-B0D6-E484797CE2AB}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17400" xr2:uid="{FE38B517-9BCF-4DCC-B0D6-E484797CE2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,12 +139,6 @@
     <t>Martin</t>
   </si>
   <si>
-    <t>Fordonsmekaniker</t>
-  </si>
-  <si>
-    <t>Grundskollärare</t>
-  </si>
-  <si>
     <t>Snickare</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>Företagssäljare</t>
   </si>
   <si>
-    <t>HR-specialist</t>
-  </si>
-  <si>
     <t>Ingenjör</t>
   </si>
   <si>
@@ -463,9 +454,6 @@
     <t>Konstnär</t>
   </si>
   <si>
-    <t>IT-chef</t>
-  </si>
-  <si>
     <t>Djuruppfödare</t>
   </si>
   <si>
@@ -475,18 +463,9 @@
     <t>Arkitekt</t>
   </si>
   <si>
-    <t>Officer</t>
-  </si>
-  <si>
     <t>Bonde</t>
   </si>
   <si>
-    <t>VD</t>
-  </si>
-  <si>
-    <t>Naprapat</t>
-  </si>
-  <si>
     <t>Målare</t>
   </si>
   <si>
@@ -497,6 +476,27 @@
   </si>
   <si>
     <t>Isak</t>
+  </si>
+  <si>
+    <t>Psykolog</t>
+  </si>
+  <si>
+    <t>Fotograf</t>
+  </si>
+  <si>
+    <t>Brandman</t>
+  </si>
+  <si>
+    <t>Lärare</t>
+  </si>
+  <si>
+    <t>Författare</t>
+  </si>
+  <si>
+    <t>Bibliotikarie</t>
+  </si>
+  <si>
+    <t>Politiker</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E8AB6-D6EE-4F10-AD29-7F2C84705848}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,24 +891,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -917,24 +917,24 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -943,24 +943,24 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -969,24 +969,24 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -995,24 +995,24 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -1021,24 +1021,24 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -1047,24 +1047,24 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -1073,24 +1073,24 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -1099,24 +1099,24 @@
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
@@ -1125,24 +1125,24 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
@@ -1151,24 +1151,24 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
@@ -1177,24 +1177,24 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
@@ -1203,24 +1203,24 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>17</v>
@@ -1229,24 +1229,24 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>18</v>
@@ -1255,24 +1255,24 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>19</v>
@@ -1281,24 +1281,24 @@
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>20</v>
@@ -1307,24 +1307,24 @@
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>21</v>
@@ -1333,24 +1333,24 @@
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>22</v>
@@ -1359,24 +1359,24 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>23</v>
@@ -1385,24 +1385,24 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>24</v>
@@ -1411,24 +1411,24 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>25</v>
@@ -1437,24 +1437,24 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>26</v>
@@ -1463,24 +1463,24 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>27</v>
@@ -1489,24 +1489,24 @@
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>28</v>
@@ -1515,24 +1515,24 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>29</v>
@@ -1541,24 +1541,24 @@
         <v>0</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1">
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>30</v>
@@ -1567,24 +1567,24 @@
         <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>31</v>
@@ -1593,24 +1593,24 @@
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>32</v>
@@ -1619,50 +1619,50 @@
         <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>33</v>
@@ -1671,793 +1671,793 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B39" s="1">
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B47" s="1">
         <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B48" s="1">
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>148</v>
+      <c r="E49" t="s">
+        <v>151</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B50" s="1">
         <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B51" s="1">
         <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B52" s="1">
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B53" s="1">
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B54" s="1">
         <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B55" s="1">
         <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B56" s="1">
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B57" s="1">
         <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B58" s="1">
         <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B59" s="1">
         <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B60" s="1">
         <v>2</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>142</v>
+      <c r="E60" t="s">
+        <v>148</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B61" s="1">
         <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>146</v>
+      <c r="E61" t="s">
+        <v>149</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
